--- a/segudo/proyecto/datosimg.xlsx
+++ b/segudo/proyecto/datosimg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edison\Documents\GitHub\Simulacion\segudo\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1728672-9921-4C4E-B3D6-11042A77A2CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB02DD4A-3E44-440B-96BE-5E9AE23B6DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>nombre</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Carrelera Moons 38</t>
+  </si>
+  <si>
+    <t>29101I2019</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE304DF-AFAF-4CB3-8598-AB07AB31DEA3}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -374,6 +380,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>199.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
